--- a/Cluster_Analysis-Career-Outcome-ADA-Tables-Final.xlsx
+++ b/Cluster_Analysis-Career-Outcome-ADA-Tables-Final.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="10725"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="10725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tabula-Career-Outcome-ADA-Table" sheetId="1" r:id="rId1"/>
+    <sheet name="Cluster" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cluster!$A$2:$AD$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'tabula-Career-Outcome-ADA-Table'!$A$11:$AC$11</definedName>
     <definedName name="career_5data">'tabula-Career-Outcome-ADA-Table'!$B$10:$T$31</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'tabula-Career-Outcome-ADA-Table'!$B$2:$B$4</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
@@ -58,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="61">
   <si>
     <t>Not found/Insufficient</t>
   </si>
@@ -153,9 +156,6 @@
     <t>Dept ID</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Sector Upon Graduation</t>
   </si>
   <si>
@@ -165,9 +165,6 @@
     <t>sigma</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>z Academia #</t>
   </si>
   <si>
@@ -211,6 +208,42 @@
   </si>
   <si>
     <t>Sum Dis^2</t>
+  </si>
+  <si>
+    <t>Department Name</t>
+  </si>
+  <si>
+    <t>Academia N</t>
+  </si>
+  <si>
+    <t>Academia %</t>
+  </si>
+  <si>
+    <t>For-Profit N</t>
+  </si>
+  <si>
+    <t>For Profti %</t>
+  </si>
+  <si>
+    <t>Government N</t>
+  </si>
+  <si>
+    <t>Government %</t>
+  </si>
+  <si>
+    <t>Nonprofit N</t>
+  </si>
+  <si>
+    <t>NonProfit %</t>
+  </si>
+  <si>
+    <t>N/A N</t>
+  </si>
+  <si>
+    <t>N/A %</t>
+  </si>
+  <si>
+    <t>Cluster?</t>
   </si>
 </sst>
 </file>
@@ -372,7 +405,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -560,7 +593,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,13 +777,16 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1055,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC36"/>
+  <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="N5" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:AD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1077,7 +1131,7 @@
     <col min="17" max="17" width="22.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1088,141 +1142,141 @@
         <v>29</v>
       </c>
       <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>43</v>
       </c>
-      <c r="L1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C2" t="str">
         <f>VLOOKUP($B2,A12:L33,2,FALSE)</f>
-        <v>Clinical Investigation</v>
+        <v>Pharmacology and Molecular Sciences</v>
       </c>
       <c r="D2">
         <f>VLOOKUP($B2,A12:X36,15,FALSE)</f>
-        <v>-0.81165942890391396</v>
+        <v>-0.19345250637088102</v>
       </c>
       <c r="E2">
         <f>VLOOKUP($B2,A12:X36,16,FALSE)</f>
-        <v>-1.0273053320117944</v>
+        <v>0.30028925089575542</v>
       </c>
       <c r="F2">
         <f>VLOOKUP($B2,A12:X36,17,FALSE)</f>
-        <v>-0.58082263002205303</v>
-      </c>
-      <c r="G2">
+        <v>0.24892398429516557</v>
+      </c>
+      <c r="G2" s="4">
         <f>VLOOKUP($B2,A12:X36,18,FALSE)</f>
-        <v>-1.1273286292519473</v>
+        <v>1.0364150301187256</v>
       </c>
       <c r="H2">
         <f>VLOOKUP($B2,A12:X36,19,FALSE)</f>
-        <v>-0.82338352375959523</v>
+        <v>-0.18297411639102121</v>
       </c>
       <c r="I2">
         <f>VLOOKUP($B2,A12:X36,20,FALSE)</f>
-        <v>-1.1523511960911879</v>
+        <v>0.16462159944159827</v>
       </c>
       <c r="J2">
         <f>VLOOKUP($B2,A12:X36,21,FALSE)</f>
-        <v>-0.54143836426990843</v>
+        <v>-0.19158588274165991</v>
       </c>
       <c r="K2">
         <f>VLOOKUP($B2,A12:X36,22,FALSE)</f>
-        <v>-1.2725373265277948</v>
+        <v>-0.27041418188715632</v>
       </c>
       <c r="L2">
         <f>VLOOKUP($B2,A12:X36,23,FALSE)</f>
-        <v>0.40898645292303021</v>
-      </c>
-      <c r="M2" s="4">
+        <v>-0.44379381061860712</v>
+      </c>
+      <c r="M2" s="5">
         <f>VLOOKUP($B2,A12:X36,24,FALSE)</f>
-        <v>1.6156068560795722</v>
+        <v>-0.65311766522365677</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="str">
         <f>VLOOKUP($B3,A12:L33,2,FALSE)</f>
-        <v>Chemistry</v>
+        <v>Clinical Investigation</v>
       </c>
       <c r="D3">
         <f>VLOOKUP($B3,A12:X36,15,FALSE)</f>
-        <v>1.042961338695185</v>
+        <v>-0.81165942890391396</v>
       </c>
       <c r="E3">
         <f>VLOOKUP($B3,A12:X36,16,FALSE)</f>
-        <v>0.46623857375919914</v>
+        <v>-1.0273053320117944</v>
       </c>
       <c r="F3" s="5">
         <f>VLOOKUP($B3,A12:X36,17,FALSE)</f>
-        <v>1.6594932286344373</v>
-      </c>
-      <c r="G3" s="4">
+        <v>-0.58082263002205303</v>
+      </c>
+      <c r="G3" s="5">
         <f>VLOOKUP($B3,A12:X36,18,FALSE)</f>
-        <v>1.9273683016242966</v>
+        <v>-1.1273286292519473</v>
       </c>
       <c r="H3">
         <f>VLOOKUP($B3,A12:X36,19,FALSE)</f>
-        <v>0.71359905392498246</v>
+        <v>-0.82338352375959523</v>
       </c>
       <c r="I3">
         <f>VLOOKUP($B3,A12:X36,20,FALSE)</f>
-        <v>0.32924319888319653</v>
+        <v>-1.1523511960911879</v>
       </c>
       <c r="J3">
         <f>VLOOKUP($B3,A12:X36,21,FALSE)</f>
-        <v>0.15826659878658858</v>
+        <v>-0.54143836426990843</v>
       </c>
       <c r="K3">
         <f>VLOOKUP($B3,A12:X36,22,FALSE)</f>
-        <v>6.3626866326389808E-2</v>
+        <v>-1.2725373265277948</v>
       </c>
       <c r="L3">
         <f>VLOOKUP($B3,A12:X36,23,FALSE)</f>
-        <v>-0.32196805868408751</v>
-      </c>
-      <c r="M3">
+        <v>0.40898645292303021</v>
+      </c>
+      <c r="M3" s="4">
         <f>VLOOKUP($B3,A12:X36,24,FALSE)</f>
-        <v>-1.1687368746107543</v>
+        <v>1.6156068560795722</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1265,7 +1319,7 @@
         <f>VLOOKUP($B4,A12:X36,22,FALSE)</f>
         <v>1.0657500109670284</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="7">
         <f>VLOOKUP($B4,A12:X36,23,FALSE)</f>
         <v>1.6272439722682264</v>
       </c>
@@ -1274,24 +1328,24 @@
         <v>-0.39530806053010797</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="3">
         <f>SUM(AC12:AC32)</f>
-        <v>164.27046411563833</v>
+        <v>108.75896837994304</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="D9" t="s">
         <v>1</v>
       </c>
@@ -1308,7 +1362,7 @@
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1316,81 +1370,87 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" t="s">
+        <v>59</v>
+      </c>
+      <c r="O11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" t="s">
         <v>35</v>
       </c>
-      <c r="F11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" t="s">
-        <v>35</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>36</v>
       </c>
-      <c r="P11" t="s">
+      <c r="R11" t="s">
         <v>37</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="S11" t="s">
         <v>38</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
         <v>39</v>
       </c>
-      <c r="S11" t="s">
+      <c r="U11" t="s">
         <v>40</v>
       </c>
-      <c r="T11" t="s">
+      <c r="V11" t="s">
         <v>41</v>
       </c>
-      <c r="U11" t="s">
+      <c r="W11" t="s">
         <v>42</v>
       </c>
-      <c r="V11" t="s">
+      <c r="X11" t="s">
         <v>43</v>
       </c>
-      <c r="W11" t="s">
+      <c r="Z11" t="s">
         <v>44</v>
       </c>
-      <c r="X11" t="s">
+      <c r="AA11" t="s">
         <v>45</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AB11" t="s">
         <v>46</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AC11" t="s">
         <v>47</v>
       </c>
-      <c r="AB11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>49</v>
+      <c r="AD11" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1469,11 +1529,11 @@
       </c>
       <c r="Z12">
         <f>SUMXMY2($D$2:$M$2,O12:X12)</f>
-        <v>19.418297477967965</v>
+        <v>6.3445854786390425</v>
       </c>
       <c r="AA12">
         <f>SUMXMY2($D$3:$M$3,O12:X12)</f>
-        <v>15.708756011827878</v>
+        <v>19.418297477967965</v>
       </c>
       <c r="AB12">
         <f>SUMXMY2($D$4:$M$4,O12:X12)</f>
@@ -1481,10 +1541,14 @@
       </c>
       <c r="AC12" s="1">
         <f>MIN(Z12:AB12)</f>
-        <v>15.708756011827878</v>
+        <v>6.3445854786390425</v>
+      </c>
+      <c r="AD12">
+        <f>MATCH(AC12,Z12:AB12,FALSE)</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A13">
         <f>A12+1</f>
         <v>2</v>
@@ -1563,25 +1627,29 @@
         <v>-0.39530806053010797</v>
       </c>
       <c r="Z13">
-        <f t="shared" ref="Z13:Z32" si="0">SUMXMY2($D$2:$M$2,O13:X13)</f>
-        <v>32.737791925426762</v>
+        <f>SUMXMY2($D$2:$M$2,O13:X13)</f>
+        <v>16.760948924931586</v>
       </c>
       <c r="AA13">
         <f>SUMXMY2($D$3:$M$3,O13:X13)</f>
-        <v>13.425074434766424</v>
+        <v>32.737791925426762</v>
       </c>
       <c r="AB13">
-        <f t="shared" ref="AB13:AB32" si="1">SUMXMY2($D$4:$M$4,O13:X13)</f>
+        <f>SUMXMY2($D$4:$M$4,O13:X13)</f>
         <v>0</v>
       </c>
       <c r="AC13" s="1">
         <f>MIN(Z13:AB13)</f>
         <v>0</v>
       </c>
+      <c r="AD13">
+        <f>MATCH(AC13,Z13:AB13,FALSE)</f>
+        <v>3</v>
+      </c>
     </row>
-    <row r="14" spans="1:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A14">
-        <f t="shared" ref="A14:A32" si="2">A13+1</f>
+        <f>A13+1</f>
         <v>3</v>
       </c>
       <c r="B14" t="s">
@@ -1658,25 +1726,29 @@
         <v>-0.24062229771397872</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="0"/>
+        <f>SUMXMY2($D$2:$M$2,O14:X14)</f>
+        <v>15.978546093124322</v>
+      </c>
+      <c r="AA14">
+        <f>SUMXMY2($D$3:$M$3,O14:X14)</f>
         <v>29.08632971868667</v>
       </c>
-      <c r="AA14">
-        <f t="shared" ref="AA14:AA32" si="3">SUMXMY2($D$3:$M$3,O14:X14)</f>
-        <v>15.498706048915819</v>
-      </c>
       <c r="AB14">
-        <f t="shared" si="1"/>
+        <f>SUMXMY2($D$4:$M$4,O14:X14)</f>
         <v>0.69351144227493788</v>
       </c>
       <c r="AC14" s="1">
         <f>MIN(Z14:AB14)</f>
         <v>0.69351144227493788</v>
       </c>
+      <c r="AD14">
+        <f>MATCH(AC14,Z14:AB14,FALSE)</f>
+        <v>3</v>
+      </c>
     </row>
-    <row r="15" spans="1:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A15">
-        <f t="shared" si="2"/>
+        <f>A14+1</f>
         <v>4</v>
       </c>
       <c r="B15" t="s">
@@ -1753,25 +1825,29 @@
         <v>-0.54999382334623725</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="0"/>
+        <f>SUMXMY2($D$2:$M$2,O15:X15)</f>
+        <v>4.2220194360890133</v>
+      </c>
+      <c r="AA15">
+        <f>SUMXMY2($D$3:$M$3,O15:X15)</f>
         <v>24.680722434448029</v>
       </c>
-      <c r="AA15">
-        <f t="shared" si="3"/>
-        <v>3.0991360908291661</v>
-      </c>
       <c r="AB15">
-        <f t="shared" si="1"/>
+        <f>SUMXMY2($D$4:$M$4,O15:X15)</f>
         <v>8.1444302609301502</v>
       </c>
       <c r="AC15" s="1">
         <f>MIN(Z15:AB15)</f>
-        <v>3.0991360908291661</v>
+        <v>4.2220194360890133</v>
+      </c>
+      <c r="AD15">
+        <f>MATCH(AC15,Z15:AB15,FALSE)</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A16">
-        <f t="shared" si="2"/>
+        <f>A15+1</f>
         <v>5</v>
       </c>
       <c r="B16" t="s">
@@ -1848,25 +1924,29 @@
         <v>-0.70467958616236648</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="0"/>
+        <f>SUMXMY2($D$2:$M$2,O16:X16)</f>
+        <v>3.5884493357044858</v>
+      </c>
+      <c r="AA16">
+        <f>SUMXMY2($D$3:$M$3,O16:X16)</f>
         <v>17.659414256324808</v>
       </c>
-      <c r="AA16">
-        <f t="shared" si="3"/>
-        <v>11.458474806229885</v>
-      </c>
       <c r="AB16">
-        <f t="shared" si="1"/>
+        <f>SUMXMY2($D$4:$M$4,O16:X16)</f>
         <v>14.026091279572713</v>
       </c>
       <c r="AC16" s="1">
         <f>MIN(Z16:AB16)</f>
-        <v>11.458474806229885</v>
+        <v>3.5884493357044858</v>
+      </c>
+      <c r="AD16">
+        <f>MATCH(AC16,Z16:AB16,FALSE)</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A17">
-        <f t="shared" si="2"/>
+        <f>A16+1</f>
         <v>6</v>
       </c>
       <c r="B17" t="s">
@@ -1943,25 +2023,29 @@
         <v>-1.0656130327333346</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="0"/>
+        <f>SUMXMY2($D$2:$M$2,O17:X17)</f>
+        <v>0.92602522498345852</v>
+      </c>
+      <c r="AA17">
+        <f>SUMXMY2($D$3:$M$3,O17:X17)</f>
         <v>21.301195940272194</v>
       </c>
-      <c r="AA17">
-        <f t="shared" si="3"/>
-        <v>6.6372869174975664</v>
-      </c>
       <c r="AB17">
-        <f t="shared" si="1"/>
+        <f>SUMXMY2($D$4:$M$4,O17:X17)</f>
         <v>21.421572064749416</v>
       </c>
       <c r="AC17" s="1">
         <f>MIN(Z17:AB17)</f>
-        <v>6.6372869174975664</v>
+        <v>0.92602522498345852</v>
+      </c>
+      <c r="AD17">
+        <f>MATCH(AC17,Z17:AB17,FALSE)</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A18">
-        <f t="shared" si="2"/>
+        <f>A17+1</f>
         <v>7</v>
       </c>
       <c r="B18" t="s">
@@ -2038,25 +2122,29 @@
         <v>3.2655883261182845</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="0"/>
+        <f>SUMXMY2($D$2:$M$2,O18:X18)</f>
+        <v>41.040669258481621</v>
+      </c>
+      <c r="AA18">
+        <f>SUMXMY2($D$3:$M$3,O18:X18)</f>
         <v>11.623008082459148</v>
       </c>
-      <c r="AA18">
-        <f t="shared" si="3"/>
-        <v>64.069168232047247</v>
-      </c>
       <c r="AB18">
-        <f t="shared" si="1"/>
+        <f>SUMXMY2($D$4:$M$4,O18:X18)</f>
         <v>66.193557701202764</v>
       </c>
       <c r="AC18" s="1">
         <f>MIN(Z18:AB18)</f>
         <v>11.623008082459148</v>
       </c>
+      <c r="AD18">
+        <f>MATCH(AC18,Z18:AB18,FALSE)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="19" spans="1:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A19">
-        <f t="shared" si="2"/>
+        <f>A18+1</f>
         <v>8</v>
       </c>
       <c r="B19" t="s">
@@ -2133,25 +2221,29 @@
         <v>-0.39530806053010797</v>
       </c>
       <c r="Z19">
-        <f t="shared" si="0"/>
+        <f>SUMXMY2($D$2:$M$2,O19:X19)</f>
+        <v>6.6665987036612542</v>
+      </c>
+      <c r="AA19">
+        <f>SUMXMY2($D$3:$M$3,O19:X19)</f>
         <v>17.513789615734598</v>
       </c>
-      <c r="AA19">
-        <f t="shared" si="3"/>
-        <v>11.98778114964473</v>
-      </c>
       <c r="AB19">
-        <f t="shared" si="1"/>
+        <f>SUMXMY2($D$4:$M$4,O19:X19)</f>
         <v>8.4677498725895664</v>
       </c>
       <c r="AC19" s="1">
         <f>MIN(Z19:AB19)</f>
-        <v>8.4677498725895664</v>
+        <v>6.6665987036612542</v>
+      </c>
+      <c r="AD19">
+        <f>MATCH(AC19,Z19:AB19,FALSE)</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A20">
-        <f t="shared" si="2"/>
+        <f>A19+1</f>
         <v>9</v>
       </c>
       <c r="B20" t="s">
@@ -2228,25 +2320,29 @@
         <v>0.68749227918279676</v>
       </c>
       <c r="Z20">
-        <f t="shared" si="0"/>
+        <f>SUMXMY2($D$2:$M$2,O20:X20)</f>
+        <v>15.956927044099297</v>
+      </c>
+      <c r="AA20">
+        <f>SUMXMY2($D$3:$M$3,O20:X20)</f>
         <v>15.912372041586192</v>
       </c>
-      <c r="AA20">
-        <f t="shared" si="3"/>
-        <v>31.987930079973598</v>
-      </c>
       <c r="AB20">
-        <f t="shared" si="1"/>
+        <f>SUMXMY2($D$4:$M$4,O20:X20)</f>
         <v>30.614593730026016</v>
       </c>
       <c r="AC20" s="1">
         <f>MIN(Z20:AB20)</f>
         <v>15.912372041586192</v>
       </c>
+      <c r="AD20">
+        <f>MATCH(AC20,Z20:AB20,FALSE)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="21" spans="1:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A21">
-        <f t="shared" si="2"/>
+        <f>A20+1</f>
         <v>10</v>
       </c>
       <c r="B21" t="s">
@@ -2323,25 +2419,29 @@
         <v>-0.75624150710107618</v>
       </c>
       <c r="Z21">
-        <f t="shared" si="0"/>
+        <f>SUMXMY2($D$2:$M$2,O21:X21)</f>
+        <v>1.9446221767374248</v>
+      </c>
+      <c r="AA21">
+        <f>SUMXMY2($D$3:$M$3,O21:X21)</f>
         <v>21.763551571252428</v>
       </c>
-      <c r="AA21">
-        <f t="shared" si="3"/>
-        <v>5.9259893916410338</v>
-      </c>
       <c r="AB21">
-        <f t="shared" si="1"/>
+        <f>SUMXMY2($D$4:$M$4,O21:X21)</f>
         <v>24.391293449438859</v>
       </c>
       <c r="AC21" s="1">
         <f>MIN(Z21:AB21)</f>
-        <v>5.9259893916410338</v>
+        <v>1.9446221767374248</v>
+      </c>
+      <c r="AD21">
+        <f>MATCH(AC21,Z21:AB21,FALSE)</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A22">
-        <f t="shared" si="2"/>
+        <f>A21+1</f>
         <v>11</v>
       </c>
       <c r="B22" t="s">
@@ -2418,25 +2518,29 @@
         <v>-1.1687368746107543</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="0"/>
+        <f>SUMXMY2($D$2:$M$2,O22:X22)</f>
+        <v>5.6853902834918975</v>
+      </c>
+      <c r="AA22">
+        <f>SUMXMY2($D$3:$M$3,O22:X22)</f>
         <v>35.139703765718394</v>
       </c>
-      <c r="AA22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="AB22">
-        <f t="shared" si="1"/>
+        <f>SUMXMY2($D$4:$M$4,O22:X22)</f>
         <v>13.425074434766424</v>
       </c>
       <c r="AC22" s="1">
         <f>MIN(Z22:AB22)</f>
-        <v>0</v>
+        <v>5.6853902834918975</v>
+      </c>
+      <c r="AD22">
+        <f>MATCH(AC22,Z22:AB22,FALSE)</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A23">
-        <f t="shared" si="2"/>
+        <f>A22+1</f>
         <v>12</v>
       </c>
       <c r="B23" t="s">
@@ -2513,25 +2617,29 @@
         <v>1.6156068560795722</v>
       </c>
       <c r="Z23">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUMXMY2($D$2:$M$2,O23:X23)</f>
+        <v>16.660487483595148</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="3"/>
-        <v>35.139703765718394</v>
+        <f>SUMXMY2($D$3:$M$3,O23:X23)</f>
+        <v>0</v>
       </c>
       <c r="AB23">
-        <f t="shared" si="1"/>
+        <f>SUMXMY2($D$4:$M$4,O23:X23)</f>
         <v>32.737791925426762</v>
       </c>
       <c r="AC23" s="1">
         <f>MIN(Z23:AB23)</f>
         <v>0</v>
       </c>
+      <c r="AD23">
+        <f>MATCH(AC23,Z23:AB23,FALSE)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="24" spans="1:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A24">
-        <f t="shared" si="2"/>
+        <f>A23+1</f>
         <v>13</v>
       </c>
       <c r="B24" t="s">
@@ -2608,25 +2716,29 @@
         <v>0.37812075355053831</v>
       </c>
       <c r="Z24">
-        <f t="shared" si="0"/>
+        <f>SUMXMY2($D$2:$M$2,O24:X24)</f>
+        <v>5.1701165725025833</v>
+      </c>
+      <c r="AA24">
+        <f>SUMXMY2($D$3:$M$3,O24:X24)</f>
         <v>7.2274783102710165</v>
       </c>
-      <c r="AA24">
-        <f t="shared" si="3"/>
-        <v>16.046260829664973</v>
-      </c>
       <c r="AB24">
-        <f t="shared" si="1"/>
+        <f>SUMXMY2($D$4:$M$4,O24:X24)</f>
         <v>16.710446057592257</v>
       </c>
       <c r="AC24" s="1">
         <f>MIN(Z24:AB24)</f>
-        <v>7.2274783102710165</v>
+        <v>5.1701165725025833</v>
+      </c>
+      <c r="AD24">
+        <f>MATCH(AC24,Z24:AB24,FALSE)</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A25">
-        <f t="shared" si="2"/>
+        <f>A24+1</f>
         <v>14</v>
       </c>
       <c r="B25" t="s">
@@ -2703,25 +2815,29 @@
         <v>-8.5936534897849456E-2</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="0"/>
+        <f>SUMXMY2($D$2:$M$2,O25:X25)</f>
+        <v>31.900525305974721</v>
+      </c>
+      <c r="AA25">
+        <f>SUMXMY2($D$3:$M$3,O25:X25)</f>
         <v>43.45412200734102</v>
       </c>
-      <c r="AA25">
-        <f t="shared" si="3"/>
-        <v>27.713722155659315</v>
-      </c>
       <c r="AB25">
-        <f t="shared" si="1"/>
+        <f>SUMXMY2($D$4:$M$4,O25:X25)</f>
         <v>10.560179784325154</v>
       </c>
       <c r="AC25" s="1">
         <f>MIN(Z25:AB25)</f>
         <v>10.560179784325154</v>
       </c>
+      <c r="AD25">
+        <f>MATCH(AC25,Z25:AB25,FALSE)</f>
+        <v>3</v>
+      </c>
     </row>
-    <row r="26" spans="1:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A26">
-        <f t="shared" si="2"/>
+        <f>A25+1</f>
         <v>15</v>
       </c>
       <c r="B26" t="s">
@@ -2798,25 +2914,29 @@
         <v>0.94530188387634551</v>
       </c>
       <c r="Z26">
-        <f t="shared" si="0"/>
+        <f>SUMXMY2($D$2:$M$2,O26:X26)</f>
+        <v>13.44983340878918</v>
+      </c>
+      <c r="AA26">
+        <f>SUMXMY2($D$3:$M$3,O26:X26)</f>
         <v>4.2279903084292112</v>
       </c>
-      <c r="AA26">
-        <f t="shared" si="3"/>
-        <v>32.226122150708989</v>
-      </c>
       <c r="AB26">
-        <f t="shared" si="1"/>
+        <f>SUMXMY2($D$4:$M$4,O26:X26)</f>
         <v>36.923498500562175</v>
       </c>
       <c r="AC26" s="1">
         <f>MIN(Z26:AB26)</f>
         <v>4.2279903084292112</v>
       </c>
+      <c r="AD26">
+        <f>MATCH(AC26,Z26:AB26,FALSE)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="27" spans="1:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A27">
-        <f t="shared" si="2"/>
+        <f>A26+1</f>
         <v>16</v>
       </c>
       <c r="B27" t="s">
@@ -2893,25 +3013,29 @@
         <v>6.8749227918279796E-2</v>
       </c>
       <c r="Z27">
-        <f t="shared" si="0"/>
+        <f>SUMXMY2($D$2:$M$2,O27:X27)</f>
+        <v>2.5592448418173124</v>
+      </c>
+      <c r="AA27">
+        <f>SUMXMY2($D$3:$M$3,O27:X27)</f>
         <v>9.3051642991228665</v>
       </c>
-      <c r="AA27">
-        <f t="shared" si="3"/>
-        <v>12.595978874254122</v>
-      </c>
       <c r="AB27">
-        <f t="shared" si="1"/>
+        <f>SUMXMY2($D$4:$M$4,O27:X27)</f>
         <v>18.286085073048678</v>
       </c>
       <c r="AC27" s="1">
         <f>MIN(Z27:AB27)</f>
-        <v>9.3051642991228665</v>
+        <v>2.5592448418173124</v>
+      </c>
+      <c r="AD27">
+        <f>MATCH(AC27,Z27:AB27,FALSE)</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A28">
-        <f t="shared" si="2"/>
+        <f>A27+1</f>
         <v>17</v>
       </c>
       <c r="B28" t="s">
@@ -2988,25 +3112,29 @@
         <v>-0.24062229771397872</v>
       </c>
       <c r="Z28">
-        <f t="shared" si="0"/>
+        <f>SUMXMY2($D$2:$M$2,O28:X28)</f>
+        <v>3.3166835700394453</v>
+      </c>
+      <c r="AA28">
+        <f>SUMXMY2($D$3:$M$3,O28:X28)</f>
         <v>11.0297122961314</v>
       </c>
-      <c r="AA28">
-        <f t="shared" si="3"/>
-        <v>15.342326709728578</v>
-      </c>
       <c r="AB28">
-        <f t="shared" si="1"/>
+        <f>SUMXMY2($D$4:$M$4,O28:X28)</f>
         <v>20.054011963754416</v>
       </c>
       <c r="AC28" s="1">
         <f>MIN(Z28:AB28)</f>
-        <v>11.0297122961314</v>
+        <v>3.3166835700394453</v>
+      </c>
+      <c r="AD28">
+        <f>MATCH(AC28,Z28:AB28,FALSE)</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A29">
-        <f t="shared" si="2"/>
+        <f>A28+1</f>
         <v>18</v>
       </c>
       <c r="B29" t="s">
@@ -3083,25 +3211,29 @@
         <v>-0.49843190240752749</v>
       </c>
       <c r="Z29">
-        <f t="shared" si="0"/>
+        <f>SUMXMY2($D$2:$M$2,O29:X29)</f>
+        <v>13.264741267683398</v>
+      </c>
+      <c r="AA29">
+        <f>SUMXMY2($D$3:$M$3,O29:X29)</f>
         <v>29.659478455213819</v>
       </c>
-      <c r="AA29">
-        <f t="shared" si="3"/>
-        <v>20.447128235839109</v>
-      </c>
       <c r="AB29">
-        <f t="shared" si="1"/>
+        <f>SUMXMY2($D$4:$M$4,O29:X29)</f>
         <v>21.828938156715637</v>
       </c>
       <c r="AC29" s="1">
         <f>MIN(Z29:AB29)</f>
-        <v>20.447128235839109</v>
+        <v>13.264741267683398</v>
+      </c>
+      <c r="AD29">
+        <f>MATCH(AC29,Z29:AB29,FALSE)</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A30">
-        <f t="shared" si="2"/>
+        <f>A29+1</f>
         <v>19</v>
       </c>
       <c r="B30" t="s">
@@ -3178,25 +3310,29 @@
         <v>0.12031114885698954</v>
       </c>
       <c r="Z30">
-        <f t="shared" si="0"/>
+        <f>SUMXMY2($D$2:$M$2,O30:X30)</f>
+        <v>7.7268297367599956</v>
+      </c>
+      <c r="AA30">
+        <f>SUMXMY2($D$3:$M$3,O30:X30)</f>
         <v>8.4204043558745472</v>
       </c>
-      <c r="AA30">
-        <f t="shared" si="3"/>
-        <v>19.357866231980012</v>
-      </c>
       <c r="AB30">
-        <f t="shared" si="1"/>
+        <f>SUMXMY2($D$4:$M$4,O30:X30)</f>
         <v>15.086948764960276</v>
       </c>
       <c r="AC30" s="1">
         <f>MIN(Z30:AB30)</f>
-        <v>8.4204043558745472</v>
+        <v>7.7268297367599956</v>
+      </c>
+      <c r="AD30">
+        <f>MATCH(AC30,Z30:AB30,FALSE)</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A31">
-        <f t="shared" si="2"/>
+        <f>A30+1</f>
         <v>20</v>
       </c>
       <c r="B31" t="s">
@@ -3273,25 +3409,29 @@
         <v>0.12031114885698954</v>
       </c>
       <c r="Z31">
-        <f t="shared" si="0"/>
+        <f>SUMXMY2($D$2:$M$2,O31:X31)</f>
+        <v>4.3266000927590822</v>
+      </c>
+      <c r="AA31">
+        <f>SUMXMY2($D$3:$M$3,O31:X31)</f>
         <v>7.8407315852177577</v>
       </c>
-      <c r="AA31">
-        <f t="shared" si="3"/>
-        <v>17.619597032121323</v>
-      </c>
       <c r="AB31">
-        <f t="shared" si="1"/>
+        <f>SUMXMY2($D$4:$M$4,O31:X31)</f>
         <v>29.799275526312375</v>
       </c>
       <c r="AC31" s="1">
         <f>MIN(Z31:AB31)</f>
-        <v>7.8407315852177577</v>
+        <v>4.3266000927590822</v>
+      </c>
+      <c r="AD31">
+        <f>MATCH(AC31,Z31:AB31,FALSE)</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A32">
-        <f t="shared" si="2"/>
+        <f>A31+1</f>
         <v>21</v>
       </c>
       <c r="B32" t="s">
@@ -3368,20 +3508,24 @@
         <v>-0.65311766522365677</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="0"/>
+        <f>SUMXMY2($D$2:$M$2,O32:X32)</f>
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <f>SUMXMY2($D$3:$M$3,O32:X32)</f>
         <v>16.660487483595148</v>
       </c>
-      <c r="AA32">
-        <f t="shared" si="3"/>
-        <v>5.6853902834918975</v>
-      </c>
       <c r="AB32">
-        <f t="shared" si="1"/>
+        <f>SUMXMY2($D$4:$M$4,O32:X32)</f>
         <v>16.760948924931586</v>
       </c>
       <c r="AC32" s="1">
         <f>MIN(Z32:AB32)</f>
-        <v>5.6853902834918975</v>
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <f>MATCH(AC32,Z32:AB32,FALSE)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.45">
@@ -3391,7 +3535,7 @@
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D35" s="2">
         <f>AVERAGE(D12:D32)</f>
@@ -3436,7 +3580,7 @@
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36" s="2">
         <f>STDEV(D12:D32)</f>
@@ -3482,4 +3626,1921 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB29" sqref="AB29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="42.9296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4">
+        <v>47</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4">
+        <v>7</v>
+      </c>
+      <c r="H3" s="4">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <v>9</v>
+      </c>
+      <c r="J3" s="4">
+        <v>4</v>
+      </c>
+      <c r="K3" s="4">
+        <v>9</v>
+      </c>
+      <c r="L3" s="4">
+        <v>12</v>
+      </c>
+      <c r="M3" s="4">
+        <v>28</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4">
+        <v>-0.45839833031360944</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.46623857375919914</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>-0.33189864572688743</v>
+      </c>
+      <c r="R3" s="4">
+        <v>-0.23637535774637608</v>
+      </c>
+      <c r="S3" s="4">
+        <v>-0.43913787933845083</v>
+      </c>
+      <c r="T3" s="4">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4">
+        <v>0.15826659878658858</v>
+      </c>
+      <c r="V3" s="4">
+        <v>1.7338321073941205</v>
+      </c>
+      <c r="W3" s="4">
+        <v>-0.56561956255312673</v>
+      </c>
+      <c r="X3" s="4">
+        <v>-0.44686998146881773</v>
+      </c>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4">
+        <v>6.3445854786390425</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>19.418297477967965</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>16.337778826387982</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>6.3445854786390425</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
+        <v>40</v>
+      </c>
+      <c r="E4" s="4">
+        <v>38</v>
+      </c>
+      <c r="F4" s="4">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4">
+        <v>19</v>
+      </c>
+      <c r="H4" s="4">
+        <v>12</v>
+      </c>
+      <c r="I4" s="4">
+        <v>11</v>
+      </c>
+      <c r="J4" s="4">
+        <v>6</v>
+      </c>
+      <c r="K4" s="4">
+        <v>6</v>
+      </c>
+      <c r="L4" s="4">
+        <v>27</v>
+      </c>
+      <c r="M4" s="4">
+        <v>26</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4">
+        <v>0.42475441616215198</v>
+      </c>
+      <c r="P4" s="4">
+        <v>-0.28053337912629761</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>1.0786705986123841</v>
+      </c>
+      <c r="R4" s="4">
+        <v>1.2909731076917459</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0.58551717245126766</v>
+      </c>
+      <c r="T4" s="4">
+        <v>0.32924319888319653</v>
+      </c>
+      <c r="U4" s="4">
+        <v>0.5081190803148371</v>
+      </c>
+      <c r="V4" s="4">
+        <v>0.73170896275348207</v>
+      </c>
+      <c r="W4" s="4">
+        <v>0.3480735769557704</v>
+      </c>
+      <c r="X4" s="4">
+        <v>-0.54999382334623725</v>
+      </c>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4">
+        <v>4.2220194360890133</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>24.680722434448029</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>8.1444302609301502</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>4.2220194360890133</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A5" s="4">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4">
+        <v>34</v>
+      </c>
+      <c r="E5" s="4">
+        <v>57</v>
+      </c>
+      <c r="F5" s="4">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4">
+        <v>7</v>
+      </c>
+      <c r="H5" s="4">
+        <v>5</v>
+      </c>
+      <c r="I5" s="4">
+        <v>8</v>
+      </c>
+      <c r="J5" s="4">
+        <v>3</v>
+      </c>
+      <c r="K5" s="4">
+        <v>5</v>
+      </c>
+      <c r="L5" s="4">
+        <v>14</v>
+      </c>
+      <c r="M5" s="4">
+        <v>23</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4">
+        <v>0.15980859221942356</v>
+      </c>
+      <c r="P5" s="4">
+        <v>1.2959851880764177</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>-0.24892398429516557</v>
+      </c>
+      <c r="R5" s="4">
+        <v>-0.23637535774637608</v>
+      </c>
+      <c r="S5" s="4">
+        <v>-0.31105599786473603</v>
+      </c>
+      <c r="T5" s="4">
+        <v>-0.16462159944159827</v>
+      </c>
+      <c r="U5" s="4">
+        <v>-1.6659641977535659E-2</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0.397667914539936</v>
+      </c>
+      <c r="W5" s="4">
+        <v>-0.44379381061860712</v>
+      </c>
+      <c r="X5" s="4">
+        <v>-0.70467958616236648</v>
+      </c>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4">
+        <v>3.5884493357044858</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>17.659414256324808</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>14.026091279572713</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>3.5884493357044858</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A6" s="4">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
+        <v>26</v>
+      </c>
+      <c r="E6" s="4">
+        <v>53</v>
+      </c>
+      <c r="F6" s="4">
+        <v>9</v>
+      </c>
+      <c r="G6" s="4">
+        <v>18</v>
+      </c>
+      <c r="H6" s="4">
+        <v>5</v>
+      </c>
+      <c r="I6" s="4">
+        <v>10</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <v>2</v>
+      </c>
+      <c r="L6" s="4">
+        <v>8</v>
+      </c>
+      <c r="M6" s="4">
+        <v>16</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4">
+        <v>-0.19345250637088102</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0.96408654234953028</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0.16594932286344372</v>
+      </c>
+      <c r="R6" s="4">
+        <v>1.1636940689052357</v>
+      </c>
+      <c r="S6" s="4">
+        <v>-0.31105599786473603</v>
+      </c>
+      <c r="T6" s="4">
+        <v>0.16462159944159827</v>
+      </c>
+      <c r="U6" s="4">
+        <v>-0.36651212350578416</v>
+      </c>
+      <c r="V6" s="4">
+        <v>-0.60445523010070246</v>
+      </c>
+      <c r="W6" s="4">
+        <v>-0.80927106642216595</v>
+      </c>
+      <c r="X6" s="4">
+        <v>-1.0656130327333346</v>
+      </c>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4">
+        <v>0.92602522498345852</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>21.301195940272194</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>21.421572064749416</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>0.92602522498345852</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A7" s="4">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4">
+        <v>50</v>
+      </c>
+      <c r="E7" s="4">
+        <v>53</v>
+      </c>
+      <c r="F7" s="4">
+        <v>8</v>
+      </c>
+      <c r="G7" s="4">
+        <v>8</v>
+      </c>
+      <c r="H7" s="4">
+        <v>3</v>
+      </c>
+      <c r="I7" s="4">
+        <v>3</v>
+      </c>
+      <c r="J7" s="4">
+        <v>6</v>
+      </c>
+      <c r="K7" s="4">
+        <v>6</v>
+      </c>
+      <c r="L7" s="4">
+        <v>28</v>
+      </c>
+      <c r="M7" s="4">
+        <v>29</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4">
+        <v>0.86633078940003272</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0.96408654234953028</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>8.2974661431721858E-2</v>
+      </c>
+      <c r="R7" s="4">
+        <v>-0.10909631895986592</v>
+      </c>
+      <c r="S7" s="4">
+        <v>-0.56721976081216563</v>
+      </c>
+      <c r="T7" s="4">
+        <v>-0.9877295966495897</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0.5081190803148371</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0.73170896275348207</v>
+      </c>
+      <c r="W7" s="4">
+        <v>0.40898645292303021</v>
+      </c>
+      <c r="X7" s="4">
+        <v>-0.39530806053010797</v>
+      </c>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4">
+        <v>6.6665987036612542</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>17.513789615734598</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>8.4677498725895664</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>6.6665987036612542</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A8" s="4">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4">
+        <v>43</v>
+      </c>
+      <c r="F8" s="4">
+        <v>14</v>
+      </c>
+      <c r="G8" s="4">
+        <v>26</v>
+      </c>
+      <c r="H8" s="4">
+        <v>4</v>
+      </c>
+      <c r="I8" s="4">
+        <v>7</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4">
+        <v>2</v>
+      </c>
+      <c r="L8" s="4">
+        <v>12</v>
+      </c>
+      <c r="M8" s="4">
+        <v>22</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4">
+        <v>-0.32592541834224525</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0.13433992803231171</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0.58082263002205303</v>
+      </c>
+      <c r="R8" s="4">
+        <v>2.1819263791973169</v>
+      </c>
+      <c r="S8" s="4">
+        <v>-0.43913787933845083</v>
+      </c>
+      <c r="T8" s="4">
+        <v>-0.32924319888319653</v>
+      </c>
+      <c r="U8" s="4">
+        <v>-0.36651212350578416</v>
+      </c>
+      <c r="V8" s="4">
+        <v>-0.60445523010070246</v>
+      </c>
+      <c r="W8" s="4">
+        <v>-0.56561956255312673</v>
+      </c>
+      <c r="X8" s="4">
+        <v>-0.75624150710107618</v>
+      </c>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4">
+        <v>1.9446221767374248</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>21.763551571252428</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>24.391293449438859</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>1.9446221767374248</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A9" s="4">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
+        <v>54</v>
+      </c>
+      <c r="E9" s="4">
+        <v>47</v>
+      </c>
+      <c r="F9" s="4">
+        <v>27</v>
+      </c>
+      <c r="G9" s="4">
+        <v>24</v>
+      </c>
+      <c r="H9" s="4">
+        <v>13</v>
+      </c>
+      <c r="I9" s="4">
+        <v>11</v>
+      </c>
+      <c r="J9" s="4">
+        <v>4</v>
+      </c>
+      <c r="K9" s="4">
+        <v>4</v>
+      </c>
+      <c r="L9" s="4">
+        <v>16</v>
+      </c>
+      <c r="M9" s="4">
+        <v>14</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4">
+        <v>1.042961338695185</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0.46623857375919914</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>1.6594932286344373</v>
+      </c>
+      <c r="R9" s="4">
+        <v>1.9273683016242966</v>
+      </c>
+      <c r="S9" s="4">
+        <v>0.71359905392498246</v>
+      </c>
+      <c r="T9" s="4">
+        <v>0.32924319888319653</v>
+      </c>
+      <c r="U9" s="4">
+        <v>0.15826659878658858</v>
+      </c>
+      <c r="V9" s="4">
+        <v>6.3626866326389808E-2</v>
+      </c>
+      <c r="W9" s="4">
+        <v>-0.32196805868408751</v>
+      </c>
+      <c r="X9" s="4">
+        <v>-1.1687368746107543</v>
+      </c>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4">
+        <v>5.6853902834918975</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>35.139703765718394</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>13.425074434766424</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>5.6853902834918975</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A10" s="4">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
+        <v>22</v>
+      </c>
+      <c r="E10" s="4">
+        <v>35</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4</v>
+      </c>
+      <c r="G10" s="4">
+        <v>6</v>
+      </c>
+      <c r="H10" s="4">
+        <v>8</v>
+      </c>
+      <c r="I10" s="4">
+        <v>13</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
+        <v>2</v>
+      </c>
+      <c r="L10" s="4">
+        <v>28</v>
+      </c>
+      <c r="M10" s="4">
+        <v>44</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4">
+        <v>-0.37008305566603328</v>
+      </c>
+      <c r="P10" s="4">
+        <v>-0.52945736342146321</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>-0.24892398429516557</v>
+      </c>
+      <c r="R10" s="4">
+        <v>-0.36365439653288623</v>
+      </c>
+      <c r="S10" s="4">
+        <v>7.318964655640843E-2</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0.65848639776639306</v>
+      </c>
+      <c r="U10" s="4">
+        <v>-0.36651212350578416</v>
+      </c>
+      <c r="V10" s="4">
+        <v>-0.60445523010070246</v>
+      </c>
+      <c r="W10" s="4">
+        <v>0.40898645292303021</v>
+      </c>
+      <c r="X10" s="4">
+        <v>0.37812075355053831</v>
+      </c>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4">
+        <v>5.1701165725025833</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>7.2274783102710165</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>16.710446057592257</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>5.1701165725025833</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A11" s="4">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4">
+        <v>37</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5</v>
+      </c>
+      <c r="G11" s="4">
+        <v>10</v>
+      </c>
+      <c r="H11" s="4">
+        <v>7</v>
+      </c>
+      <c r="I11" s="4">
+        <v>13</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4">
+        <v>2</v>
+      </c>
+      <c r="L11" s="4">
+        <v>20</v>
+      </c>
+      <c r="M11" s="4">
+        <v>38</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4">
+        <v>-0.50255596763739752</v>
+      </c>
+      <c r="P11" s="4">
+        <v>-0.36350804055801944</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>-0.16594932286344372</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0.14546175861315441</v>
+      </c>
+      <c r="S11" s="4">
+        <v>-5.4892234917306382E-2</v>
+      </c>
+      <c r="T11" s="4">
+        <v>0.65848639776639306</v>
+      </c>
+      <c r="U11" s="4">
+        <v>-0.36651212350578416</v>
+      </c>
+      <c r="V11" s="4">
+        <v>-0.60445523010070246</v>
+      </c>
+      <c r="W11" s="4">
+        <v>-7.8316554815048262E-2</v>
+      </c>
+      <c r="X11" s="4">
+        <v>6.8749227918279796E-2</v>
+      </c>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4">
+        <v>2.5592448418173124</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>9.3051642991228665</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>18.286085073048678</v>
+      </c>
+      <c r="AC11" s="4">
+        <v>2.5592448418173124</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A12" s="4">
+        <v>17</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
+        <v>18</v>
+      </c>
+      <c r="E12" s="4">
+        <v>49</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4">
+        <v>4</v>
+      </c>
+      <c r="I12" s="4">
+        <v>11</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4">
+        <v>3</v>
+      </c>
+      <c r="L12" s="4">
+        <v>12</v>
+      </c>
+      <c r="M12" s="4">
+        <v>32</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4">
+        <v>-0.5467136049611856</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0.63218789662264285</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>-0.41487330715860932</v>
+      </c>
+      <c r="R12" s="4">
+        <v>-0.49093343531939643</v>
+      </c>
+      <c r="S12" s="4">
+        <v>-0.43913787933845083</v>
+      </c>
+      <c r="T12" s="4">
+        <v>0.32924319888319653</v>
+      </c>
+      <c r="U12" s="4">
+        <v>-0.36651212350578416</v>
+      </c>
+      <c r="V12" s="4">
+        <v>-0.27041418188715632</v>
+      </c>
+      <c r="W12" s="4">
+        <v>-0.56561956255312673</v>
+      </c>
+      <c r="X12" s="4">
+        <v>-0.24062229771397872</v>
+      </c>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4">
+        <v>3.3166835700394453</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>11.0297122961314</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>20.054011963754416</v>
+      </c>
+      <c r="AC12" s="4">
+        <v>3.3166835700394453</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A13" s="4">
+        <v>18</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4">
+        <v>21</v>
+      </c>
+      <c r="E13" s="4">
+        <v>36</v>
+      </c>
+      <c r="F13" s="4">
+        <v>3</v>
+      </c>
+      <c r="G13" s="4">
+        <v>5</v>
+      </c>
+      <c r="H13" s="4">
+        <v>16</v>
+      </c>
+      <c r="I13" s="4">
+        <v>27</v>
+      </c>
+      <c r="J13" s="4">
+        <v>3</v>
+      </c>
+      <c r="K13" s="4">
+        <v>5</v>
+      </c>
+      <c r="L13" s="4">
+        <v>16</v>
+      </c>
+      <c r="M13" s="4">
+        <v>27</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4">
+        <v>-0.41424069298982136</v>
+      </c>
+      <c r="P13" s="4">
+        <v>-0.44648270198974133</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>-0.33189864572688743</v>
+      </c>
+      <c r="R13" s="4">
+        <v>-0.49093343531939643</v>
+      </c>
+      <c r="S13" s="4">
+        <v>1.097844698346127</v>
+      </c>
+      <c r="T13" s="4">
+        <v>2.9631887899487692</v>
+      </c>
+      <c r="U13" s="4">
+        <v>-1.6659641977535659E-2</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0.397667914539936</v>
+      </c>
+      <c r="W13" s="4">
+        <v>-0.32196805868408751</v>
+      </c>
+      <c r="X13" s="4">
+        <v>-0.49843190240752749</v>
+      </c>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4">
+        <v>13.264741267683398</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>29.659478455213819</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>21.828938156715637</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>13.264741267683398</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A14" s="4">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4">
+        <v>37</v>
+      </c>
+      <c r="E14" s="4">
+        <v>52</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>3</v>
+      </c>
+      <c r="I14" s="4">
+        <v>4</v>
+      </c>
+      <c r="J14" s="4">
+        <v>2</v>
+      </c>
+      <c r="K14" s="4">
+        <v>3</v>
+      </c>
+      <c r="L14" s="4">
+        <v>28</v>
+      </c>
+      <c r="M14" s="4">
+        <v>39</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4">
+        <v>0.29228150419078774</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0.88111188091780845</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>-0.49784796859033115</v>
+      </c>
+      <c r="R14" s="4">
+        <v>-1.0000495904654372</v>
+      </c>
+      <c r="S14" s="4">
+        <v>-0.56721976081216563</v>
+      </c>
+      <c r="T14" s="4">
+        <v>-0.82310799720799144</v>
+      </c>
+      <c r="U14" s="4">
+        <v>-0.19158588274165991</v>
+      </c>
+      <c r="V14" s="4">
+        <v>-0.27041418188715632</v>
+      </c>
+      <c r="W14" s="4">
+        <v>0.40898645292303021</v>
+      </c>
+      <c r="X14" s="4">
+        <v>0.12031114885698954</v>
+      </c>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4">
+        <v>7.7268297367599956</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>8.4204043558745472</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>15.086948764960276</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>7.7268297367599956</v>
+      </c>
+      <c r="AD14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A15" s="4">
+        <v>20</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4">
+        <v>10</v>
+      </c>
+      <c r="E15" s="4">
+        <v>43</v>
+      </c>
+      <c r="F15" s="4">
+        <v>3</v>
+      </c>
+      <c r="G15" s="4">
+        <v>13</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <v>4</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>9</v>
+      </c>
+      <c r="M15" s="4">
+        <v>39</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4">
+        <v>-0.89997470355149012</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0.13433992803231171</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>-0.33189864572688743</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0.52729887497268491</v>
+      </c>
+      <c r="S15" s="4">
+        <v>-0.82338352375959523</v>
+      </c>
+      <c r="T15" s="4">
+        <v>-0.82310799720799144</v>
+      </c>
+      <c r="U15" s="4">
+        <v>-0.54143836426990843</v>
+      </c>
+      <c r="V15" s="4">
+        <v>-1.2725373265277948</v>
+      </c>
+      <c r="W15" s="4">
+        <v>-0.74835819045490615</v>
+      </c>
+      <c r="X15" s="4">
+        <v>0.12031114885698954</v>
+      </c>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4">
+        <v>4.3266000927590822</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>7.8407315852177577</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>29.799275526312375</v>
+      </c>
+      <c r="AC15" s="4">
+        <v>4.3266000927590822</v>
+      </c>
+      <c r="AD15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A16" s="4">
+        <v>21</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4">
+        <v>26</v>
+      </c>
+      <c r="E16" s="4">
+        <v>45</v>
+      </c>
+      <c r="F16" s="4">
+        <v>10</v>
+      </c>
+      <c r="G16" s="4">
+        <v>17</v>
+      </c>
+      <c r="H16" s="4">
+        <v>6</v>
+      </c>
+      <c r="I16" s="4">
+        <v>10</v>
+      </c>
+      <c r="J16" s="4">
+        <v>2</v>
+      </c>
+      <c r="K16" s="4">
+        <v>3</v>
+      </c>
+      <c r="L16" s="4">
+        <v>14</v>
+      </c>
+      <c r="M16" s="4">
+        <v>24</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4">
+        <v>-0.19345250637088102</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0.30028925089575542</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0.24892398429516557</v>
+      </c>
+      <c r="R16" s="4">
+        <v>1.0364150301187256</v>
+      </c>
+      <c r="S16" s="4">
+        <v>-0.18297411639102121</v>
+      </c>
+      <c r="T16" s="4">
+        <v>0.16462159944159827</v>
+      </c>
+      <c r="U16" s="4">
+        <v>-0.19158588274165991</v>
+      </c>
+      <c r="V16" s="4">
+        <v>-0.27041418188715632</v>
+      </c>
+      <c r="W16" s="4">
+        <v>-0.44379381061860712</v>
+      </c>
+      <c r="X16" s="4">
+        <v>-0.65311766522365677</v>
+      </c>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>16.660487483595148</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>16.760948924931586</v>
+      </c>
+      <c r="AC16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A17" s="6">
+        <v>7</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0</v>
+      </c>
+      <c r="L17" s="6">
+        <v>1</v>
+      </c>
+      <c r="M17" s="6">
+        <v>100</v>
+      </c>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6">
+        <v>-1.3415510767893708</v>
+      </c>
+      <c r="P17" s="6">
+        <v>-3.4335705135317283</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>-0.58082263002205303</v>
+      </c>
+      <c r="R17" s="6">
+        <v>-1.1273286292519473</v>
+      </c>
+      <c r="S17" s="6">
+        <v>-0.95146540523331014</v>
+      </c>
+      <c r="T17" s="6">
+        <v>-1.4815943949743846</v>
+      </c>
+      <c r="U17" s="6">
+        <v>-0.54143836426990843</v>
+      </c>
+      <c r="V17" s="6">
+        <v>-1.2725373265277948</v>
+      </c>
+      <c r="W17" s="6">
+        <v>-1.2356611981929846</v>
+      </c>
+      <c r="X17" s="6">
+        <v>3.2655883261182845</v>
+      </c>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6">
+        <v>41.040669258481621</v>
+      </c>
+      <c r="AA17" s="6">
+        <v>11.623008082459148</v>
+      </c>
+      <c r="AB17" s="6">
+        <v>66.193557701202764</v>
+      </c>
+      <c r="AC17" s="6">
+        <v>11.623008082459148</v>
+      </c>
+      <c r="AD17" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A18" s="6">
+        <v>9</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6">
+        <v>3</v>
+      </c>
+      <c r="E18" s="6">
+        <v>30</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1</v>
+      </c>
+      <c r="I18" s="6">
+        <v>10</v>
+      </c>
+      <c r="J18" s="6">
+        <v>1</v>
+      </c>
+      <c r="K18" s="6">
+        <v>10</v>
+      </c>
+      <c r="L18" s="6">
+        <v>5</v>
+      </c>
+      <c r="M18" s="6">
+        <v>50</v>
+      </c>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6">
+        <v>-1.2090781648180067</v>
+      </c>
+      <c r="P18" s="6">
+        <v>-0.94433067058007247</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>-0.58082263002205303</v>
+      </c>
+      <c r="R18" s="6">
+        <v>-1.1273286292519473</v>
+      </c>
+      <c r="S18" s="6">
+        <v>-0.82338352375959523</v>
+      </c>
+      <c r="T18" s="6">
+        <v>0.16462159944159827</v>
+      </c>
+      <c r="U18" s="6">
+        <v>-0.36651212350578416</v>
+      </c>
+      <c r="V18" s="6">
+        <v>2.0678731556076668</v>
+      </c>
+      <c r="W18" s="6">
+        <v>-0.99200969432394537</v>
+      </c>
+      <c r="X18" s="6">
+        <v>0.68749227918279676</v>
+      </c>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6">
+        <v>15.956927044099297</v>
+      </c>
+      <c r="AA18" s="6">
+        <v>15.912372041586192</v>
+      </c>
+      <c r="AB18" s="6">
+        <v>30.614593730026016</v>
+      </c>
+      <c r="AC18" s="6">
+        <v>15.912372041586192</v>
+      </c>
+      <c r="AD18" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A19" s="6">
+        <v>12</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6">
+        <v>12</v>
+      </c>
+      <c r="E19" s="6">
+        <v>29</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6">
+        <v>2</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0</v>
+      </c>
+      <c r="L19" s="6">
+        <v>28</v>
+      </c>
+      <c r="M19" s="6">
+        <v>68</v>
+      </c>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6">
+        <v>-0.81165942890391396</v>
+      </c>
+      <c r="P19" s="6">
+        <v>-1.0273053320117944</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>-0.58082263002205303</v>
+      </c>
+      <c r="R19" s="6">
+        <v>-1.1273286292519473</v>
+      </c>
+      <c r="S19" s="6">
+        <v>-0.82338352375959523</v>
+      </c>
+      <c r="T19" s="6">
+        <v>-1.1523511960911879</v>
+      </c>
+      <c r="U19" s="6">
+        <v>-0.54143836426990843</v>
+      </c>
+      <c r="V19" s="6">
+        <v>-1.2725373265277948</v>
+      </c>
+      <c r="W19" s="6">
+        <v>0.40898645292303021</v>
+      </c>
+      <c r="X19" s="6">
+        <v>1.6156068560795722</v>
+      </c>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6">
+        <v>16.660487483595148</v>
+      </c>
+      <c r="AA19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="6">
+        <v>32.737791925426762</v>
+      </c>
+      <c r="AC19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A20" s="6">
+        <v>15</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6">
+        <v>5</v>
+      </c>
+      <c r="E20" s="6">
+        <v>45</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6">
+        <v>6</v>
+      </c>
+      <c r="M20" s="6">
+        <v>55</v>
+      </c>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6">
+        <v>-1.1207628901704305</v>
+      </c>
+      <c r="P20" s="6">
+        <v>0.30028925089575542</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>-0.58082263002205303</v>
+      </c>
+      <c r="R20" s="6">
+        <v>-1.1273286292519473</v>
+      </c>
+      <c r="S20" s="6">
+        <v>-0.95146540523331014</v>
+      </c>
+      <c r="T20" s="6">
+        <v>-1.4815943949743846</v>
+      </c>
+      <c r="U20" s="6">
+        <v>-0.54143836426990843</v>
+      </c>
+      <c r="V20" s="6">
+        <v>-1.2725373265277948</v>
+      </c>
+      <c r="W20" s="6">
+        <v>-0.93109681835668556</v>
+      </c>
+      <c r="X20" s="6">
+        <v>0.94530188387634551</v>
+      </c>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6">
+        <v>13.44983340878918</v>
+      </c>
+      <c r="AA20" s="6">
+        <v>4.2279903084292112</v>
+      </c>
+      <c r="AB20" s="6">
+        <v>36.923498500562175</v>
+      </c>
+      <c r="AC20" s="6">
+        <v>4.2279903084292112</v>
+      </c>
+      <c r="AD20" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A21" s="8">
+        <v>2</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8">
+        <v>77</v>
+      </c>
+      <c r="E21" s="8">
+        <v>46</v>
+      </c>
+      <c r="F21" s="8">
+        <v>14</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8</v>
+      </c>
+      <c r="H21" s="8">
+        <v>16</v>
+      </c>
+      <c r="I21" s="8">
+        <v>10</v>
+      </c>
+      <c r="J21" s="8">
+        <v>11</v>
+      </c>
+      <c r="K21" s="8">
+        <v>7</v>
+      </c>
+      <c r="L21" s="8">
+        <v>48</v>
+      </c>
+      <c r="M21" s="8">
+        <v>29</v>
+      </c>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8">
+        <v>2.0585869971423105</v>
+      </c>
+      <c r="P21" s="8">
+        <v>0.38326391232747725</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>0.58082263002205303</v>
+      </c>
+      <c r="R21" s="8">
+        <v>-0.10909631895986592</v>
+      </c>
+      <c r="S21" s="8">
+        <v>1.097844698346127</v>
+      </c>
+      <c r="T21" s="8">
+        <v>0.16462159944159827</v>
+      </c>
+      <c r="U21" s="8">
+        <v>1.3827502841354584</v>
+      </c>
+      <c r="V21" s="8">
+        <v>1.0657500109670284</v>
+      </c>
+      <c r="W21" s="8">
+        <v>1.6272439722682264</v>
+      </c>
+      <c r="X21" s="8">
+        <v>-0.39530806053010797</v>
+      </c>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8">
+        <v>16.760948924931586</v>
+      </c>
+      <c r="AA21" s="8">
+        <v>32.737791925426762</v>
+      </c>
+      <c r="AB21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A22" s="8">
+        <v>3</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8">
+        <v>65</v>
+      </c>
+      <c r="E22" s="8">
+        <v>44</v>
+      </c>
+      <c r="F22" s="8">
+        <v>10</v>
+      </c>
+      <c r="G22" s="8">
+        <v>7</v>
+      </c>
+      <c r="H22" s="8">
+        <v>14</v>
+      </c>
+      <c r="I22" s="8">
+        <v>9</v>
+      </c>
+      <c r="J22" s="8">
+        <v>12</v>
+      </c>
+      <c r="K22" s="8">
+        <v>8</v>
+      </c>
+      <c r="L22" s="8">
+        <v>48</v>
+      </c>
+      <c r="M22" s="8">
+        <v>32</v>
+      </c>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8">
+        <v>1.5286953492568538</v>
+      </c>
+      <c r="P22" s="8">
+        <v>0.21731458946403356</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>0.24892398429516557</v>
+      </c>
+      <c r="R22" s="8">
+        <v>-0.23637535774637608</v>
+      </c>
+      <c r="S22" s="8">
+        <v>0.84168093539869737</v>
+      </c>
+      <c r="T22" s="8">
+        <v>0</v>
+      </c>
+      <c r="U22" s="8">
+        <v>1.5576765248995825</v>
+      </c>
+      <c r="V22" s="8">
+        <v>1.3997910591805744</v>
+      </c>
+      <c r="W22" s="8">
+        <v>1.6272439722682264</v>
+      </c>
+      <c r="X22" s="8">
+        <v>-0.24062229771397872</v>
+      </c>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8">
+        <v>15.978546093124322</v>
+      </c>
+      <c r="AA22" s="8">
+        <v>29.08632971868667</v>
+      </c>
+      <c r="AB22" s="8">
+        <v>0.69351144227493788</v>
+      </c>
+      <c r="AC22" s="8">
+        <v>0.69351144227493788</v>
+      </c>
+      <c r="AD22" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A23" s="8">
+        <v>14</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8">
+        <v>76</v>
+      </c>
+      <c r="E23" s="8">
+        <v>40</v>
+      </c>
+      <c r="F23" s="8">
+        <v>10</v>
+      </c>
+      <c r="G23" s="8">
+        <v>5</v>
+      </c>
+      <c r="H23" s="8">
+        <v>33</v>
+      </c>
+      <c r="I23" s="8">
+        <v>17</v>
+      </c>
+      <c r="J23" s="8">
+        <v>6</v>
+      </c>
+      <c r="K23" s="8">
+        <v>3</v>
+      </c>
+      <c r="L23" s="8">
+        <v>67</v>
+      </c>
+      <c r="M23" s="8">
+        <v>35</v>
+      </c>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8">
+        <v>2.0144293598185223</v>
+      </c>
+      <c r="P23" s="8">
+        <v>-0.11458405626285388</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>0.24892398429516557</v>
+      </c>
+      <c r="R23" s="8">
+        <v>-0.49093343531939643</v>
+      </c>
+      <c r="S23" s="8">
+        <v>3.2752366833992785</v>
+      </c>
+      <c r="T23" s="8">
+        <v>1.3169727955327861</v>
+      </c>
+      <c r="U23" s="8">
+        <v>0.5081190803148371</v>
+      </c>
+      <c r="V23" s="8">
+        <v>-0.27041418188715632</v>
+      </c>
+      <c r="W23" s="8">
+        <v>2.7845886156461628</v>
+      </c>
+      <c r="X23" s="8">
+        <v>-8.5936534897849456E-2</v>
+      </c>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8">
+        <v>31.900525305974721</v>
+      </c>
+      <c r="AA23" s="8">
+        <v>43.45412200734102</v>
+      </c>
+      <c r="AB23" s="8">
+        <v>10.560179784325154</v>
+      </c>
+      <c r="AC23" s="8">
+        <v>10.560179784325154</v>
+      </c>
+      <c r="AD23" s="8">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:AD2">
+    <sortState ref="A3:AD23">
+      <sortCondition ref="AD2"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>